--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
@@ -842,6 +842,9 @@
       <c r="J11">
         <v>-0.05853558822055238</v>
       </c>
+      <c r="K11">
+        <v>-0.3352267436446591</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -871,6 +874,9 @@
       <c r="I12">
         <v>0.2952509178591439</v>
       </c>
+      <c r="J12">
+        <v>0.01855976243503714</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -897,6 +903,9 @@
       <c r="H13">
         <v>0.1470735274266985</v>
       </c>
+      <c r="I13">
+        <v>-0.1296176279974082</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -920,6 +929,9 @@
       <c r="G14">
         <v>-0.01037246157745647</v>
       </c>
+      <c r="H14">
+        <v>-0.2870636170015632</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -940,6 +952,9 @@
       <c r="F15">
         <v>0.4902869949486143</v>
       </c>
+      <c r="G15">
+        <v>0.2135958395245076</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -957,8 +972,11 @@
       <c r="E16">
         <v>0.2099291144131452</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>-0.06676204101096155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -971,8 +989,11 @@
       <c r="D17">
         <v>0.3819039722581568</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.1052128168340501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,18 +1003,27 @@
       <c r="C18">
         <v>0.07604143251182532</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>-0.2006497229122814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>0.6883713851991116</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19">
+        <v>0.4116802297750048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.147570471799392</v>
+        <v>-1.292459514723937</v>
       </c>
       <c r="C2">
-        <v>-1.292459514723937</v>
+        <v>-1.353633693138139</v>
       </c>
       <c r="D2">
-        <v>-1.353633693138139</v>
+        <v>0.6878222440181159</v>
       </c>
       <c r="E2">
-        <v>0.6878222440181159</v>
+        <v>0.1052277069844749</v>
       </c>
       <c r="F2">
-        <v>0.1052277069844749</v>
+        <v>0.2009027477938327</v>
       </c>
       <c r="G2">
-        <v>0.2009027477938327</v>
+        <v>-0.0595162892048901</v>
       </c>
       <c r="H2">
-        <v>-0.0595162892048901</v>
+        <v>0.7759387069536011</v>
       </c>
       <c r="I2">
-        <v>0.7759387069536011</v>
+        <v>0.6758593470509796</v>
       </c>
       <c r="J2">
-        <v>0.6758593470509796</v>
+        <v>0.3220728409712834</v>
       </c>
       <c r="K2">
-        <v>0.3220728409712834</v>
+        <v>0.4702502314037287</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-3.44002998652333</v>
+        <v>-3.501204164937531</v>
       </c>
       <c r="C3">
-        <v>-3.501204164937531</v>
+        <v>-1.459748227781277</v>
       </c>
       <c r="D3">
-        <v>-1.459748227781277</v>
+        <v>-2.042342764814918</v>
       </c>
       <c r="E3">
-        <v>-2.042342764814918</v>
+        <v>-1.94666772400556</v>
       </c>
       <c r="F3">
-        <v>-1.94666772400556</v>
+        <v>-2.207086761004283</v>
       </c>
       <c r="G3">
-        <v>-2.207086761004283</v>
+        <v>-1.371631764845791</v>
       </c>
       <c r="H3">
-        <v>-1.371631764845791</v>
+        <v>-1.471711124748413</v>
       </c>
       <c r="I3">
-        <v>-1.471711124748413</v>
+        <v>-1.825497630828109</v>
       </c>
       <c r="J3">
-        <v>-1.825497630828109</v>
+        <v>-1.677320240395664</v>
       </c>
       <c r="K3">
-        <v>-1.677320240395664</v>
+        <v>-1.519874251391509</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.06117417841420103</v>
+        <v>1.980281758742053</v>
       </c>
       <c r="C4">
-        <v>1.980281758742053</v>
+        <v>1.397687221708412</v>
       </c>
       <c r="D4">
-        <v>1.397687221708412</v>
+        <v>1.49336226251777</v>
       </c>
       <c r="E4">
-        <v>1.49336226251777</v>
+        <v>1.232943225519047</v>
       </c>
       <c r="F4">
-        <v>1.232943225519047</v>
+        <v>2.068398221677539</v>
       </c>
       <c r="G4">
-        <v>2.068398221677539</v>
+        <v>1.968318861774917</v>
       </c>
       <c r="H4">
-        <v>1.968318861774917</v>
+        <v>1.614532355695221</v>
       </c>
       <c r="I4">
-        <v>1.614532355695221</v>
+        <v>1.762709746127666</v>
       </c>
       <c r="J4">
-        <v>1.762709746127666</v>
+        <v>1.920155735131821</v>
       </c>
       <c r="K4">
-        <v>1.920155735131821</v>
+        <v>1.41949627860575</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2.041455937156254</v>
+        <v>1.458861400122613</v>
       </c>
       <c r="C5">
-        <v>1.458861400122613</v>
+        <v>1.554536440931971</v>
       </c>
       <c r="D5">
-        <v>1.554536440931971</v>
+        <v>1.294117403933248</v>
       </c>
       <c r="E5">
-        <v>1.294117403933248</v>
+        <v>2.12957240009174</v>
       </c>
       <c r="F5">
-        <v>2.12957240009174</v>
+        <v>2.029493040189118</v>
       </c>
       <c r="G5">
-        <v>2.029493040189118</v>
+        <v>1.675706534109422</v>
       </c>
       <c r="H5">
-        <v>1.675706534109422</v>
+        <v>1.823883924541867</v>
       </c>
       <c r="I5">
-        <v>1.823883924541867</v>
+        <v>1.981329913546022</v>
       </c>
       <c r="J5">
-        <v>1.981329913546022</v>
+        <v>1.480670457019951</v>
       </c>
       <c r="K5">
-        <v>1.480670457019951</v>
+        <v>1.761028337555421</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.5825945370336409</v>
+        <v>-0.4869194962242832</v>
       </c>
       <c r="C6">
-        <v>-0.4869194962242832</v>
+        <v>-0.747338533223006</v>
       </c>
       <c r="D6">
-        <v>-0.747338533223006</v>
+        <v>0.0881164629354852</v>
       </c>
       <c r="E6">
-        <v>0.0881164629354852</v>
+        <v>-0.01196289696713632</v>
       </c>
       <c r="F6">
-        <v>-0.01196289696713632</v>
+        <v>-0.3657494030468326</v>
       </c>
       <c r="G6">
-        <v>-0.3657494030468326</v>
+        <v>-0.2175720126143872</v>
       </c>
       <c r="H6">
-        <v>-0.2175720126143872</v>
+        <v>-0.06012602361023223</v>
       </c>
       <c r="I6">
-        <v>-0.06012602361023223</v>
+        <v>-0.560785480136303</v>
       </c>
       <c r="J6">
-        <v>-0.560785480136303</v>
+        <v>-0.2804275996008339</v>
       </c>
       <c r="K6">
-        <v>-0.2804275996008339</v>
+        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09567504080935779</v>
+        <v>-0.164743996189365</v>
       </c>
       <c r="C7">
-        <v>-0.164743996189365</v>
+        <v>0.6707109999691262</v>
       </c>
       <c r="D7">
-        <v>0.6707109999691262</v>
+        <v>0.5706316400665047</v>
       </c>
       <c r="E7">
-        <v>0.5706316400665047</v>
+        <v>0.2168451339868084</v>
       </c>
       <c r="F7">
-        <v>0.2168451339868084</v>
+        <v>0.3650225244192538</v>
       </c>
       <c r="G7">
-        <v>0.3650225244192538</v>
+        <v>0.5224685134234088</v>
       </c>
       <c r="H7">
-        <v>0.5224685134234088</v>
+        <v>0.02180905689733798</v>
       </c>
       <c r="I7">
-        <v>0.02180905689733798</v>
+        <v>0.3021669374328071</v>
       </c>
       <c r="J7">
-        <v>0.3021669374328071</v>
+        <v>0.1301920795877955</v>
       </c>
       <c r="K7">
-        <v>0.1301920795877955</v>
+        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2604190369987228</v>
+        <v>0.5750359591597685</v>
       </c>
       <c r="C8">
-        <v>0.5750359591597685</v>
+        <v>0.4749565992571469</v>
       </c>
       <c r="D8">
-        <v>0.4749565992571469</v>
+        <v>0.1211700931774507</v>
       </c>
       <c r="E8">
-        <v>0.1211700931774507</v>
+        <v>0.269347483609896</v>
       </c>
       <c r="F8">
-        <v>0.269347483609896</v>
+        <v>0.426793472614051</v>
       </c>
       <c r="G8">
-        <v>0.426793472614051</v>
+        <v>-0.07386598391201982</v>
       </c>
       <c r="H8">
-        <v>-0.07386598391201982</v>
+        <v>0.2064918966234494</v>
       </c>
       <c r="I8">
-        <v>0.2064918966234494</v>
+        <v>0.0345170387784377</v>
       </c>
       <c r="J8">
-        <v>0.0345170387784377</v>
+        <v>0.3403795785247692</v>
       </c>
       <c r="K8">
-        <v>0.3403795785247692</v>
+        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.8354549961584912</v>
+        <v>0.7353756362558697</v>
       </c>
       <c r="C9">
-        <v>0.7353756362558697</v>
+        <v>0.3815891301761735</v>
       </c>
       <c r="D9">
-        <v>0.3815891301761735</v>
+        <v>0.5297665206086188</v>
       </c>
       <c r="E9">
-        <v>0.5297665206086188</v>
+        <v>0.6872125096127738</v>
       </c>
       <c r="F9">
-        <v>0.6872125096127738</v>
+        <v>0.186553053086703</v>
       </c>
       <c r="G9">
-        <v>0.186553053086703</v>
+        <v>0.4669109336221722</v>
       </c>
       <c r="H9">
-        <v>0.4669109336221722</v>
+        <v>0.2949360757771605</v>
       </c>
       <c r="I9">
-        <v>0.2949360757771605</v>
+        <v>0.600798615523492</v>
       </c>
       <c r="J9">
-        <v>0.600798615523492</v>
+        <v>-0.01153133716379418</v>
       </c>
       <c r="K9">
-        <v>-0.01153133716379418</v>
+        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1000793599026215</v>
+        <v>-0.4538658659823178</v>
       </c>
       <c r="C10">
-        <v>-0.4538658659823178</v>
+        <v>-0.3056884755498724</v>
       </c>
       <c r="D10">
-        <v>-0.3056884755498724</v>
+        <v>-0.1482424865457174</v>
       </c>
       <c r="E10">
-        <v>-0.1482424865457174</v>
+        <v>-0.6489019430717882</v>
       </c>
       <c r="F10">
-        <v>-0.6489019430717882</v>
+        <v>-0.3685440625363191</v>
       </c>
       <c r="G10">
-        <v>-0.3685440625363191</v>
+        <v>-0.5405189203813308</v>
       </c>
       <c r="H10">
-        <v>-0.5405189203813308</v>
+        <v>-0.2346563806349992</v>
       </c>
       <c r="I10">
-        <v>-0.2346563806349992</v>
+        <v>-0.8469863333222853</v>
       </c>
       <c r="J10">
-        <v>-0.8469863333222853</v>
+        <v>-0.1586149481231739</v>
       </c>
       <c r="K10">
-        <v>-0.1586149481231739</v>
+        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,33 +816,30 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.3537865060796963</v>
+        <v>-0.2056091156472509</v>
       </c>
       <c r="C11">
-        <v>-0.2056091156472509</v>
+        <v>-0.04816312664309591</v>
       </c>
       <c r="D11">
-        <v>-0.04816312664309591</v>
+        <v>-0.5488225831691667</v>
       </c>
       <c r="E11">
-        <v>-0.5488225831691667</v>
+        <v>-0.2684647026336975</v>
       </c>
       <c r="F11">
-        <v>-0.2684647026336975</v>
+        <v>-0.4404395604787092</v>
       </c>
       <c r="G11">
-        <v>-0.4404395604787092</v>
+        <v>-0.1345770207323777</v>
       </c>
       <c r="H11">
-        <v>-0.1345770207323777</v>
+        <v>-0.7469069734196638</v>
       </c>
       <c r="I11">
-        <v>-0.7469069734196638</v>
+        <v>-0.05853558822055238</v>
       </c>
       <c r="J11">
-        <v>-0.05853558822055238</v>
-      </c>
-      <c r="K11">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -851,30 +848,27 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1481773904324453</v>
+        <v>0.3056233794366003</v>
       </c>
       <c r="C12">
-        <v>0.3056233794366003</v>
+        <v>-0.1950360770894705</v>
       </c>
       <c r="D12">
-        <v>-0.1950360770894705</v>
+        <v>0.08532180344599868</v>
       </c>
       <c r="E12">
-        <v>0.08532180344599868</v>
+        <v>-0.08665305439901295</v>
       </c>
       <c r="F12">
-        <v>-0.08665305439901295</v>
+        <v>0.2192094853473185</v>
       </c>
       <c r="G12">
-        <v>0.2192094853473185</v>
+        <v>-0.3931204673399676</v>
       </c>
       <c r="H12">
-        <v>-0.3931204673399676</v>
+        <v>0.2952509178591439</v>
       </c>
       <c r="I12">
-        <v>0.2952509178591439</v>
-      </c>
-      <c r="J12">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -883,27 +877,24 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.157445989004155</v>
+        <v>-0.3432134675219158</v>
       </c>
       <c r="C13">
-        <v>-0.3432134675219158</v>
+        <v>-0.06285558698644665</v>
       </c>
       <c r="D13">
-        <v>-0.06285558698644665</v>
+        <v>-0.2348304448314583</v>
       </c>
       <c r="E13">
-        <v>-0.2348304448314583</v>
+        <v>0.0710320949148732</v>
       </c>
       <c r="F13">
-        <v>0.0710320949148732</v>
+        <v>-0.541297857772413</v>
       </c>
       <c r="G13">
-        <v>-0.541297857772413</v>
+        <v>0.1470735274266985</v>
       </c>
       <c r="H13">
-        <v>0.1470735274266985</v>
-      </c>
-      <c r="I13">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -912,24 +903,21 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5006594565260708</v>
+        <v>-0.2203015759906016</v>
       </c>
       <c r="C14">
-        <v>-0.2203015759906016</v>
+        <v>-0.3922764338356133</v>
       </c>
       <c r="D14">
-        <v>-0.3922764338356133</v>
+        <v>-0.0864138940892818</v>
       </c>
       <c r="E14">
-        <v>-0.0864138940892818</v>
+        <v>-0.698743846776568</v>
       </c>
       <c r="F14">
-        <v>-0.698743846776568</v>
+        <v>-0.01037246157745647</v>
       </c>
       <c r="G14">
-        <v>-0.01037246157745647</v>
-      </c>
-      <c r="H14">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -938,21 +926,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2803578805354692</v>
+        <v>0.1083830226904575</v>
       </c>
       <c r="C15">
-        <v>0.1083830226904575</v>
+        <v>0.414245562436789</v>
       </c>
       <c r="D15">
-        <v>0.414245562436789</v>
+        <v>-0.1980843902504972</v>
       </c>
       <c r="E15">
-        <v>-0.1980843902504972</v>
+        <v>0.4902869949486143</v>
       </c>
       <c r="F15">
-        <v>0.4902869949486143</v>
-      </c>
-      <c r="G15">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1719748578450117</v>
+        <v>0.1338876819013198</v>
       </c>
       <c r="C16">
-        <v>0.1338876819013198</v>
+        <v>-0.4784422707859664</v>
       </c>
       <c r="D16">
-        <v>-0.4784422707859664</v>
+        <v>0.2099291144131452</v>
       </c>
       <c r="E16">
-        <v>0.2099291144131452</v>
-      </c>
-      <c r="F16">
         <v>-0.06676204101096155</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3058625397463315</v>
+        <v>-0.3064674129409547</v>
       </c>
       <c r="C17">
-        <v>-0.3064674129409547</v>
+        <v>0.3819039722581568</v>
       </c>
       <c r="D17">
-        <v>0.3819039722581568</v>
-      </c>
-      <c r="E17">
         <v>0.1052128168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.6123299526872862</v>
+        <v>0.07604143251182532</v>
       </c>
       <c r="C18">
-        <v>0.07604143251182532</v>
-      </c>
-      <c r="D18">
         <v>-0.2006497229122814</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.6883713851991116</v>
-      </c>
-      <c r="C19">
         <v>0.4116802297750048</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_errors_first_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>2.147570471799392</v>
+      </c>
+      <c r="C2">
         <v>-1.292459514723937</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1.353633693138139</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.6878222440181159</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.1052277069844749</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2009027477938327</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.0595162892048901</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.7759387069536011</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.6758593470509796</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.3220728409712834</v>
-      </c>
-      <c r="K2">
-        <v>0.4702502314037287</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-3.44002998652333</v>
+      </c>
+      <c r="C3">
         <v>-3.501204164937531</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-1.459748227781277</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-2.042342764814918</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-1.94666772400556</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.207086761004283</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.371631764845791</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.471711124748413</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.825497630828109</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-1.677320240395664</v>
-      </c>
-      <c r="K3">
-        <v>-1.519874251391509</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.06117417841420103</v>
+      </c>
+      <c r="C4">
         <v>1.980281758742053</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.397687221708412</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.49336226251777</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.232943225519047</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.068398221677539</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.968318861774917</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.614532355695221</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.762709746127666</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.920155735131821</v>
-      </c>
-      <c r="K4">
-        <v>1.41949627860575</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>2.041455937156254</v>
+      </c>
+      <c r="C5">
         <v>1.458861400122613</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.554536440931971</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.294117403933248</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.12957240009174</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.029493040189118</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.675706534109422</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.823883924541867</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.981329913546022</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.480670457019951</v>
-      </c>
-      <c r="K5">
-        <v>1.761028337555421</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C6">
         <v>-0.4869194962242832</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.747338533223006</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0881164629354852</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.01196289696713632</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.3657494030468326</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.2175720126143872</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.06012602361023223</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.560785480136303</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.2804275996008339</v>
-      </c>
-      <c r="K6">
-        <v>-0.4524024574458455</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C7">
         <v>-0.164743996189365</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.6707109999691262</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.5706316400665047</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2168451339868084</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.3650225244192538</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.5224685134234088</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.02180905689733798</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.3021669374328071</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.1301920795877955</v>
-      </c>
-      <c r="K7">
-        <v>0.436054619334127</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C8">
         <v>0.5750359591597685</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4749565992571469</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1211700931774507</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.269347483609896</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.426793472614051</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.07386598391201982</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.2064918966234494</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.0345170387784377</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.3403795785247692</v>
-      </c>
-      <c r="K8">
-        <v>-0.271950374162517</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C9">
         <v>0.7353756362558697</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.3815891301761735</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5297665206086188</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.6872125096127738</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.186553053086703</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4669109336221722</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.2949360757771605</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.600798615523492</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.01153133716379418</v>
-      </c>
-      <c r="K9">
-        <v>0.6768400480353174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C10">
         <v>-0.4538658659823178</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3056884755498724</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1482424865457174</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.6489019430717882</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.3685440625363191</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.5405189203813308</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2346563806349992</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.8469863333222853</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.1586149481231739</v>
-      </c>
-      <c r="K10">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,30 +816,33 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C11">
         <v>-0.2056091156472509</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.04816312664309591</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.5488225831691667</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.2684647026336975</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.4404395604787092</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1345770207323777</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.7469069734196638</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.05853558822055238</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -848,27 +851,30 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C12">
         <v>0.3056233794366003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.1950360770894705</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.08532180344599868</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.08665305439901295</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.2192094853473185</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.3931204673399676</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.2952509178591439</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -877,24 +883,27 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C13">
         <v>-0.3432134675219158</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.06285558698644665</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.2348304448314583</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.0710320949148732</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.541297857772413</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.1470735274266985</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -903,21 +912,24 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C14">
         <v>-0.2203015759906016</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.3922764338356133</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.0864138940892818</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.698743846776568</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.01037246157745647</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -926,18 +938,21 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C15">
         <v>0.1083830226904575</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.414245562436789</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.1980843902504972</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.4902869949486143</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C16">
         <v>0.1338876819013198</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.4784422707859664</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.2099291144131452</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.06676204101096155</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C17">
         <v>-0.3064674129409547</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3819039722581568</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1052128168340501</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C18">
         <v>0.07604143251182532</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.2006497229122814</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.6883713851991116</v>
+      </c>
+      <c r="C19">
         <v>0.4116802297750048</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
